--- a/Instrumentos-Yamaha.xlsx
+++ b/Instrumentos-Yamaha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\gustavo\Meus Documentos\Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n3xus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE7AF4-B836-423D-A254-6916EF68ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="405" windowWidth="22890" windowHeight="10605"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
@@ -18,9 +19,9 @@
   <definedNames>
     <definedName name="Slicer_Tipo">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -39,8 +40,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
   <si>
     <t>Preço</t>
   </si>
@@ -265,12 +266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,318 +343,343 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+  <dxfs count="106">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -664,211 +690,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$R$ -416]* #,##0.00_);_([$R$ -416]* \(#,##0.00\);_([$R$ -416]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,22 +708,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Tipo"/>
+            <xdr:cNvPr id="2" name="Tipo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -926,8 +753,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2028825" y="19050"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="3095625" y="28575"/>
+              <a:ext cx="1647825" cy="1181100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -947,8 +774,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -961,7 +788,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="gustavo" refreshedDate="44964.944490162037" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="62">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gustavo" refreshedDate="44964.944490162037" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="62" xr:uid="{00000000-000A-0000-FFFF-FFFF1A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -1039,7 +866,7 @@
         <s v="APXT2"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Preço" numFmtId="166">
+    <cacheField name="Preço" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="590" maxValue="420000" count="52">
         <n v="64750"/>
         <n v="82100"/>
@@ -1420,14 +1247,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" rowHeaderCaption="Instrumento">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" rowHeaderCaption="Instrumento">
+  <location ref="A1:C31" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="3">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="3">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0">
@@ -1496,7 +1323,7 @@
         <item x="38"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="166" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
       <items count="52">
         <item x="23"/>
         <item x="24"/>
@@ -1553,40 +1380,143 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="30">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
+      <x v="32"/>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="33"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="34"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="35"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="53"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="54"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="55"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="56"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="57"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="58"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="59"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="60"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="61"/>
+      <x v="2"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Valor" fld="2" baseField="1" baseItem="38" numFmtId="44"/>
+    <dataField name="Valor" fld="2" baseField="1" baseItem="38" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="134">
+    <format dxfId="104">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="103">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1596,26 +1526,29 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="0" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium3" showRowHeaders="0" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Tipo" sourceName="Tipo">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Tipo" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Tipo">
   <pivotTables>
     <pivotTable tabId="8" name="PivotTable7"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="0"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -1623,18 +1556,18 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Tipo" cache="Slicer_Tipo" caption="Tipo" style="SlicerStyleLight3" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Tipo" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Tipo" caption="Tipo" style="SlicerStyleDark2" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C63" totalsRowShown="0">
-  <autoFilter ref="A1:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C63" totalsRowShown="0">
+  <autoFilter ref="A1:C63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Tipo"/>
-    <tableColumn id="4" name="Instrumento"/>
-    <tableColumn id="5" name="Preço" dataDxfId="165" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tipo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Instrumento"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1902,82 +1835,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3">
-        <v>22999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3">
-        <v>22999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3">
-        <v>22999</v>
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B7">
     <sortCondition ref="B2"/>
   </sortState>
   <conditionalFormatting sqref="B1">
-    <cfRule type="top10" dxfId="97" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1992,24 +2210,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +2249,7 @@
         <v>64750</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2042,7 +2260,7 @@
         <v>82100</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2053,7 +2271,7 @@
         <v>104300</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2282,7 @@
         <v>158400</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2075,7 +2293,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2089,7 +2307,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2101,7 +2319,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2112,7 +2330,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2123,7 +2341,7 @@
         <v>387000</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2135,7 +2353,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2146,7 +2364,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2157,7 +2375,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +2386,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2179,7 +2397,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2190,7 +2408,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2201,7 +2419,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2212,7 +2430,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2223,7 +2441,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -2234,7 +2452,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2245,7 +2463,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2256,7 +2474,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2267,7 +2485,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2278,7 +2496,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2507,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2300,7 +2518,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2311,7 +2529,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2540,7 @@
         <v>22999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2333,7 +2551,7 @@
         <v>22999</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2344,7 +2562,7 @@
         <v>22999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2355,7 +2573,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2366,7 +2584,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2377,7 +2595,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2388,7 +2606,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2399,7 +2617,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2410,7 +2628,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2421,7 +2639,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2432,7 +2650,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2443,7 +2661,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2454,7 +2672,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -2465,7 +2683,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2476,7 +2694,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2487,7 +2705,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -2498,7 +2716,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -2509,7 +2727,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -2520,7 +2738,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2531,7 +2749,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2542,7 +2760,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2553,7 +2771,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2564,7 +2782,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2575,7 +2793,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2586,7 +2804,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -2597,7 +2815,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -2608,7 +2826,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -2619,7 +2837,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2630,7 +2848,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2641,7 +2859,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2652,7 +2870,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2663,7 +2881,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2674,7 +2892,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2685,7 +2903,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2696,7 +2914,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
